--- a/Test/Lawnmower/T2/Sensors_data_1000024.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000024.xlsx
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9687034687754175</v>
+        <v>0.9861735829993926</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0007905729462265995</v>
+        <v>0.0004879523756788924</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4962625271255254</v>
+        <v>0.01616396909833928</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9253029778645077</v>
+        <v>0.935807049318744</v>
       </c>
       <c r="D3" t="n">
-        <v>0.003089799003096997</v>
+        <v>0.002184993237331421</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1037596799933465</v>
+        <v>0.03178454806259157</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -525,16 +525,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.01304490868563513</v>
+        <v>0.09726733392186904</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03483093859197692</v>
+        <v>0.0426006219932045</v>
       </c>
       <c r="E4" t="n">
-        <v>0.693045828284901</v>
+        <v>0.5290378075023998</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9904461331359957</v>
+        <v>0.01364767498446484</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0003251935651294124</v>
+        <v>0.03161288493848582</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0048401260151546</v>
+        <v>0.1000248121280344</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
